--- a/excelfortest.xlsx
+++ b/excelfortest.xlsx
@@ -4,35 +4,54 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14055" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Output" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Praveen</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>gi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>support@z4.com</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>pageName</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,13 +59,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -58,13 +105,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,31 +424,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"Chrome, internet, Firefox"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"working, prod"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excelfortest.xlsx
+++ b/excelfortest.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14055" windowHeight="7155" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="0" windowWidth="1695" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Output" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" r:id="rId1" sheetId="1"/>
+    <sheet name="Output" r:id="rId2" sheetId="2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t>Browser</t>
   </si>
@@ -32,25 +32,104 @@
     <t>username</t>
   </si>
   <si>
-    <t>support@z4.com</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
     <t>demo</t>
   </si>
   <si>
-    <t>pageName</t>
-  </si>
-  <si>
-    <t>Result</t>
+    <t>Page Names</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>support@z9.com</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Case Conference Alert Report</t>
+  </si>
+  <si>
+    <t>Case Conference Notification</t>
+  </si>
+  <si>
+    <t>Covid Alert Report</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Aide Careplan Tracking Reportfail</t>
+  </si>
+  <si>
+    <t>Aide Careplan Tracking Report</t>
+  </si>
+  <si>
+    <t>Client Forms Package Report</t>
+  </si>
+  <si>
+    <t>Clinician Velocity Report</t>
+  </si>
+  <si>
+    <t>Clinician Velocity Summary Report</t>
+  </si>
+  <si>
+    <t>Complaint Report</t>
+  </si>
+  <si>
+    <t>DE - HHABN Expiry Report</t>
+  </si>
+  <si>
+    <t>Homebound Status Report</t>
+  </si>
+  <si>
+    <t>Incident Report List</t>
+  </si>
+  <si>
+    <t>Infection Control Report</t>
+  </si>
+  <si>
+    <t>Intake Evaluation Alert</t>
+  </si>
+  <si>
+    <t>Medication Report</t>
+  </si>
+  <si>
+    <t>Pending Cosign</t>
+  </si>
+  <si>
+    <t>QA Velocity Report</t>
+  </si>
+  <si>
+    <t>QA Velocity Summary Report</t>
+  </si>
+  <si>
+    <t>Subform Master Report</t>
+  </si>
+  <si>
+    <t>Supervisory Visit Alert</t>
+  </si>
+  <si>
+    <t>Supplies Report</t>
+  </si>
+  <si>
+    <t>Therapy Re-Eval Alert Report</t>
+  </si>
+  <si>
+    <t>Wound Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -106,26 +185,21 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -142,10 +216,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -180,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,7 +289,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,7 +377,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -312,13 +386,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -328,7 +402,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -337,7 +411,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -346,7 +420,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -356,12 +430,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -392,7 +466,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -411,7 +485,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -423,17 +497,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,77 +531,98 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B1" type="list">
       <formula1>"Chrome, internet, Firefox"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B2" type="list">
       <formula1>"working, prod"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excelfortest.xlsx
+++ b/excelfortest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="0" windowWidth="1695" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="0" windowWidth="1695" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" r:id="rId1" sheetId="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Browser</t>
   </si>
@@ -38,91 +38,37 @@
     <t>demo</t>
   </si>
   <si>
-    <t>Page Names</t>
-  </si>
-  <si>
-    <t>Results</t>
+    <t>intakeclient</t>
+  </si>
+  <si>
+    <t>0, sxd11(615-ot)</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>1, -ksc</t>
+  </si>
+  <si>
+    <t>subformname</t>
+  </si>
+  <si>
+    <t>Informed Consent for Medical Photography</t>
+  </si>
+  <si>
+    <t>Episodes</t>
+  </si>
+  <si>
+    <t>subformfrom</t>
+  </si>
+  <si>
+    <t>subformlibraryid</t>
+  </si>
+  <si>
+    <t>support@z9.com</t>
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>support@z9.com</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Case Conference Alert Report</t>
-  </si>
-  <si>
-    <t>Case Conference Notification</t>
-  </si>
-  <si>
-    <t>Covid Alert Report</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>Aide Careplan Tracking Reportfail</t>
-  </si>
-  <si>
-    <t>Aide Careplan Tracking Report</t>
-  </si>
-  <si>
-    <t>Client Forms Package Report</t>
-  </si>
-  <si>
-    <t>Clinician Velocity Report</t>
-  </si>
-  <si>
-    <t>Clinician Velocity Summary Report</t>
-  </si>
-  <si>
-    <t>Complaint Report</t>
-  </si>
-  <si>
-    <t>DE - HHABN Expiry Report</t>
-  </si>
-  <si>
-    <t>Homebound Status Report</t>
-  </si>
-  <si>
-    <t>Incident Report List</t>
-  </si>
-  <si>
-    <t>Infection Control Report</t>
-  </si>
-  <si>
-    <t>Intake Evaluation Alert</t>
-  </si>
-  <si>
-    <t>Medication Report</t>
-  </si>
-  <si>
-    <t>Pending Cosign</t>
-  </si>
-  <si>
-    <t>QA Velocity Report</t>
-  </si>
-  <si>
-    <t>QA Velocity Summary Report</t>
-  </si>
-  <si>
-    <t>Subform Master Report</t>
-  </si>
-  <si>
-    <t>Supervisory Visit Alert</t>
-  </si>
-  <si>
-    <t>Supplies Report</t>
-  </si>
-  <si>
-    <t>Therapy Re-Eval Alert Report</t>
-  </si>
-  <si>
-    <t>Wound Report</t>
   </si>
 </sst>
 </file>
@@ -155,7 +101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,12 +111,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,8 +131,10 @@
   <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -498,20 +440,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="41.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -519,7 +461,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -527,19 +469,59 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -561,68 +543,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="B5:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="36.85546875" collapsed="true"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>